--- a/lugaresDane.xlsx
+++ b/lugaresDane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\OneDrive\Escritorio\Nueva carpeta (2)\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD51BB7-3E3B-4ECD-821E-18A1BE10DE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4DF1C0-3C8A-49FD-B46F-FBE3FADBEE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="600" windowWidth="23016" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -6681,22 +6681,22 @@
     <t>Barrancominas (CD)</t>
   </si>
   <si>
-    <t>codigoPais</t>
-  </si>
-  <si>
-    <t>nombrePais</t>
-  </si>
-  <si>
-    <t>codigoDep</t>
-  </si>
-  <si>
-    <t>nombreDep</t>
-  </si>
-  <si>
-    <t>codigoMun</t>
-  </si>
-  <si>
-    <t>nombreMun</t>
+    <t>codigo pais</t>
+  </si>
+  <si>
+    <t>nombre pais</t>
+  </si>
+  <si>
+    <t>codigo dep</t>
+  </si>
+  <si>
+    <t>nombre dep</t>
+  </si>
+  <si>
+    <t>codigo mun</t>
+  </si>
+  <si>
+    <t>nombre mun</t>
   </si>
 </sst>
 </file>
@@ -7095,7 +7095,7 @@
   <dimension ref="A1:F1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1107" sqref="K1107"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
